--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1223815966860079</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.536994959082446</v>
+        <v>-1.521170567124217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2227414683436066</v>
+        <v>0.226691314646227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1170666118902381</v>
+        <v>0.117817424243315</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1458376604423043</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.433305394431892</v>
+        <v>-1.416707013134871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1977969325059645</v>
+        <v>0.2028342673752268</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09203668715785129</v>
+        <v>0.09323091184292399</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1788531744057812</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.424818348214943</v>
+        <v>-1.401296147395477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1888115810961122</v>
+        <v>0.1960928141351305</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1311161346791296</v>
+        <v>0.1330520229071279</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2131558558203775</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.502620439661602</v>
+        <v>-1.479158620989135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2174095417874751</v>
+        <v>0.2250091534197559</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08552273433018204</v>
+        <v>0.08501223072374391</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.241289801969906</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.504609390988477</v>
+        <v>-1.481372023125053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.325944926214792</v>
+        <v>0.3343843986189549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0953186703194326</v>
+        <v>0.09904101620962599</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2575095250244551</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.44185282279584</v>
+        <v>-1.426179691165445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3817038744830994</v>
+        <v>0.388684416628481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02630919534877358</v>
+        <v>0.02878059393095671</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2632276604679116</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.168187514345753</v>
+        <v>-1.157403506860171</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4237146007768289</v>
+        <v>0.4268416640865162</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02865624611908466</v>
+        <v>-0.02656726780122256</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2617797841152134</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5872844237146612</v>
+        <v>-0.5824245757623326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3642522141593073</v>
+        <v>0.3623364533136416</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02186294962146479</v>
+        <v>-0.02250214649069675</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2553143581832347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02107241641821475</v>
+        <v>0.02286070384244006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3155177223251072</v>
+        <v>0.3113123192589293</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05931817838056302</v>
+        <v>-0.05996469429791597</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2385991515782064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8054596829087012</v>
+        <v>0.8093076724583047</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1255469489797431</v>
+        <v>0.1219417078594853</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.006138584654223105</v>
+        <v>-0.004672945267997522</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2007887482389757</v>
       </c>
       <c r="E12" t="n">
-        <v>1.578954985953821</v>
+        <v>1.584671162536303</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2606938584604391</v>
+        <v>-0.2658855032609185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1021607604711923</v>
+        <v>0.1013623743053291</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1302378345528387</v>
       </c>
       <c r="E13" t="n">
-        <v>2.324368321200106</v>
+        <v>2.330007647777319</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6219181594231229</v>
+        <v>-0.6296421948734603</v>
       </c>
       <c r="G13" t="n">
-        <v>0.224895098253204</v>
+        <v>0.2237130719816663</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02175580368492394</v>
       </c>
       <c r="E14" t="n">
-        <v>3.014430135190152</v>
+        <v>3.02238106113224</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.159614469313383</v>
+        <v>-1.172110524138597</v>
       </c>
       <c r="G14" t="n">
-        <v>0.395583839323855</v>
+        <v>0.3952361845381086</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1197364823687574</v>
       </c>
       <c r="E15" t="n">
-        <v>3.720989083644879</v>
+        <v>3.727828734113932</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.742938335110488</v>
+        <v>-1.760848045862518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5397733567518331</v>
+        <v>0.5430028867352141</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.279654087156737</v>
       </c>
       <c r="E16" t="n">
-        <v>4.335783026600154</v>
+        <v>4.337864075949218</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.24857721423087</v>
+        <v>-2.267815942137534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7208222104377267</v>
+        <v>0.7232100498871953</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.439419255536551</v>
       </c>
       <c r="E17" t="n">
-        <v>4.943100561899851</v>
+        <v>4.946734469291917</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.793605380576318</v>
+        <v>-2.814663501861722</v>
       </c>
       <c r="G17" t="n">
-        <v>0.931541875285383</v>
+        <v>0.9380289916032754</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5901582794044838</v>
       </c>
       <c r="E18" t="n">
-        <v>5.30355880249254</v>
+        <v>5.304126028721916</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.332706032824791</v>
+        <v>-3.355165751825361</v>
       </c>
       <c r="G18" t="n">
-        <v>1.122718461808678</v>
+        <v>1.131271989379393</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7302651625968835</v>
       </c>
       <c r="E19" t="n">
-        <v>5.619270822556284</v>
+        <v>5.620447969462407</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.832208500016411</v>
+        <v>-3.861408757376062</v>
       </c>
       <c r="G19" t="n">
-        <v>1.357632460061576</v>
+        <v>1.363172369568479</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8616805778241711</v>
       </c>
       <c r="E20" t="n">
-        <v>5.970643684748133</v>
+        <v>5.971439021310612</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.336824542161886</v>
+        <v>-4.366645088849791</v>
       </c>
       <c r="G20" t="n">
-        <v>1.530752954870422</v>
+        <v>1.533894046355674</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9818146051472684</v>
       </c>
       <c r="E21" t="n">
-        <v>6.183502341409144</v>
+        <v>6.180205110230644</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.647384867229477</v>
+        <v>-4.675141137386928</v>
       </c>
       <c r="G21" t="n">
-        <v>1.673357898380208</v>
+        <v>1.677970728458454</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.086684019664073</v>
       </c>
       <c r="E22" t="n">
-        <v>6.320137991255597</v>
+        <v>6.313192214588791</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.925788649417219</v>
+        <v>-4.956827512656928</v>
       </c>
       <c r="G22" t="n">
-        <v>1.870731278979264</v>
+        <v>1.875710671384235</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.170856342415166</v>
       </c>
       <c r="E23" t="n">
-        <v>6.39072045165159</v>
+        <v>6.384307745656261</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.185252564829903</v>
+        <v>-5.221214097851646</v>
       </c>
       <c r="G23" t="n">
-        <v>1.976245726294648</v>
+        <v>1.979506362232543</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.23251384846424</v>
       </c>
       <c r="E24" t="n">
-        <v>6.482472038896154</v>
+        <v>6.474755322493937</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.30302519790657</v>
+        <v>-5.341080588611588</v>
       </c>
       <c r="G24" t="n">
-        <v>2.066921413465428</v>
+        <v>2.073665916308908</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.270249617499138</v>
       </c>
       <c r="E25" t="n">
-        <v>6.491901412558679</v>
+        <v>6.478954016432671</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.327947776599848</v>
+        <v>-5.367135790001588</v>
       </c>
       <c r="G25" t="n">
-        <v>2.129530380854292</v>
+        <v>2.134850718917566</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.283998788444776</v>
       </c>
       <c r="E26" t="n">
-        <v>6.547378577474329</v>
+        <v>6.534700766287443</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.329611640206018</v>
+        <v>-5.364092590784954</v>
       </c>
       <c r="G26" t="n">
-        <v>2.155835039801083</v>
+        <v>2.162644194236298</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.275294605474532</v>
       </c>
       <c r="E27" t="n">
-        <v>6.436754824649826</v>
+        <v>6.41992101397158</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.318815434306901</v>
+        <v>-5.352044827657149</v>
       </c>
       <c r="G27" t="n">
-        <v>2.165402255536553</v>
+        <v>2.170046191569313</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.246145818982869</v>
       </c>
       <c r="E28" t="n">
-        <v>6.346277971619666</v>
+        <v>6.32897330217897</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.239587958238681</v>
+        <v>-5.278154157510476</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12651310326642</v>
+        <v>2.130576394814915</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.199469169062174</v>
       </c>
       <c r="E29" t="n">
-        <v>6.251514596073321</v>
+        <v>6.23165069947299</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.0863475229281</v>
+        <v>-5.116574276786719</v>
       </c>
       <c r="G29" t="n">
-        <v>2.045013672677314</v>
+        <v>2.046264010064648</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.137209093777849</v>
       </c>
       <c r="E30" t="n">
-        <v>6.097118056119964</v>
+        <v>6.072796859213958</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.888750606401016</v>
+        <v>-4.915138214559844</v>
       </c>
       <c r="G30" t="n">
-        <v>1.994092615216972</v>
+        <v>1.993368639373672</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.063083067223469</v>
       </c>
       <c r="E31" t="n">
-        <v>5.930548719300069</v>
+        <v>5.908046305852126</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.757233105913494</v>
+        <v>-4.77938816953603</v>
       </c>
       <c r="G31" t="n">
-        <v>1.887394921788697</v>
+        <v>1.888794689741834</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9796614526022356</v>
       </c>
       <c r="E32" t="n">
-        <v>5.742201554796208</v>
+        <v>5.723819765440375</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.50827049975272</v>
+        <v>-4.530829635823601</v>
       </c>
       <c r="G32" t="n">
-        <v>1.818674549218817</v>
+        <v>1.822146827631544</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8908960145067591</v>
       </c>
       <c r="E33" t="n">
-        <v>5.478143716846257</v>
+        <v>5.462872522941839</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.35730110408201</v>
+        <v>-4.378451018429264</v>
       </c>
       <c r="G33" t="n">
-        <v>1.722125325930953</v>
+        <v>1.726522854010306</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7998468031965212</v>
       </c>
       <c r="E34" t="n">
-        <v>5.262989318757966</v>
+        <v>5.249889442462771</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.142887759615967</v>
+        <v>-4.159107380172729</v>
       </c>
       <c r="G34" t="n">
-        <v>1.575435743648985</v>
+        <v>1.5801516503216</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7110755877925283</v>
       </c>
       <c r="E35" t="n">
-        <v>5.005125835201069</v>
+        <v>4.990834173903508</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.00502433944722</v>
+        <v>-4.022991077782526</v>
       </c>
       <c r="G35" t="n">
-        <v>1.509008672823677</v>
+        <v>1.514806578776844</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6279189798649482</v>
       </c>
       <c r="E36" t="n">
-        <v>4.712050411134152</v>
+        <v>4.694644494861116</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.84499609692511</v>
+        <v>-3.860571641247225</v>
       </c>
       <c r="G36" t="n">
-        <v>1.467526137836011</v>
+        <v>1.471339971827717</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5525836770651776</v>
       </c>
       <c r="E37" t="n">
-        <v>4.394419580621359</v>
+        <v>4.378884900984586</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.704833580765361</v>
+        <v>-3.720625037007045</v>
       </c>
       <c r="G37" t="n">
-        <v>1.373664834970576</v>
+        <v>1.376015469258763</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4852434651538345</v>
       </c>
       <c r="E38" t="n">
-        <v>4.111627419164415</v>
+        <v>4.100478069193461</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.609853073458093</v>
+        <v>-3.622846213634857</v>
       </c>
       <c r="G38" t="n">
-        <v>1.26501478545603</v>
+        <v>1.265842447814377</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4238670346848126</v>
       </c>
       <c r="E39" t="n">
-        <v>3.848080694741579</v>
+        <v>3.840403013262675</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.55282549018215</v>
+        <v>-3.561873053501031</v>
       </c>
       <c r="G39" t="n">
-        <v>1.177186817924986</v>
+        <v>1.177779050902109</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3667377672885198</v>
       </c>
       <c r="E40" t="n">
-        <v>3.508596406380903</v>
+        <v>3.502310563886338</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.473251579169538</v>
+        <v>-3.480681022933006</v>
       </c>
       <c r="G40" t="n">
-        <v>1.091166045359147</v>
+        <v>1.093902149515039</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3111170724431725</v>
       </c>
       <c r="E41" t="n">
-        <v>3.294452036933306</v>
+        <v>3.285865573646047</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.383244670020812</v>
+        <v>-3.388733041230529</v>
       </c>
       <c r="G41" t="n">
-        <v>1.029678112174145</v>
+        <v>1.031451761502129</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.256610360325267</v>
       </c>
       <c r="E42" t="n">
-        <v>2.99850510632026</v>
+        <v>2.989455103318673</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.297792038565363</v>
+        <v>-3.304418521757893</v>
       </c>
       <c r="G42" t="n">
-        <v>1.012450902659397</v>
+        <v>1.016819764466943</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2019004400667455</v>
       </c>
       <c r="E43" t="n">
-        <v>2.667598742357369</v>
+        <v>2.651784719050645</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.204140243452391</v>
+        <v>-3.208487758036251</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9219008591480264</v>
+        <v>0.92447533432458</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1475159935863724</v>
       </c>
       <c r="E44" t="n">
-        <v>2.43922492352124</v>
+        <v>2.425329710663566</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.169197582921156</v>
+        <v>-3.176114388355818</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9081532470941251</v>
+        <v>0.9100879154807701</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.09311774522321521</v>
       </c>
       <c r="E45" t="n">
-        <v>2.178156916728708</v>
+        <v>2.163284610946884</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.079018676141587</v>
+        <v>-3.083501593115686</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8368260735518236</v>
+        <v>0.8391071768828613</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.03960396094154674</v>
       </c>
       <c r="E46" t="n">
-        <v>2.032922605181461</v>
+        <v>2.014931165058746</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.990095596035443</v>
+        <v>-2.997589691390646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7981589324080269</v>
+        <v>0.7996404297318479</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.01185848400749955</v>
       </c>
       <c r="E47" t="n">
-        <v>1.813090115502512</v>
+        <v>1.793124972069841</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.913175449887361</v>
+        <v>-2.923311111693561</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7243914662380563</v>
+        <v>0.7271586763484622</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05950500897742528</v>
       </c>
       <c r="E48" t="n">
-        <v>1.685323322216652</v>
+        <v>1.668504149634647</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.84719545091811</v>
+        <v>-2.852087624666306</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6558894452704517</v>
+        <v>0.6589658851639689</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1018618343878064</v>
       </c>
       <c r="E49" t="n">
-        <v>1.502855183115966</v>
+        <v>1.483104121840833</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.809772547954879</v>
+        <v>-2.815654622961437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5742515626877241</v>
+        <v>0.5776311331575851</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1383536940626832</v>
       </c>
       <c r="E50" t="n">
-        <v>1.410788266881523</v>
+        <v>1.390959135759767</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.72575292512945</v>
+        <v>-2.732412039078186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.564234225492814</v>
+        <v>0.5703736870249599</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.168678904725358</v>
       </c>
       <c r="E51" t="n">
-        <v>1.320687124988239</v>
+        <v>1.301895468937632</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.660018114272252</v>
+        <v>-2.663417812124445</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4732700458419319</v>
+        <v>0.4797907077970454</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1940160825455467</v>
       </c>
       <c r="E52" t="n">
-        <v>1.271279890647586</v>
+        <v>1.253335414416981</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.575450782679103</v>
+        <v>-2.579879416712971</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3966493707461339</v>
+        <v>0.4025247366252479</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2157521032831646</v>
       </c>
       <c r="E53" t="n">
-        <v>1.232620068551911</v>
+        <v>1.221138311812128</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.536769003439065</v>
+        <v>-2.536396951826248</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3895029301766769</v>
+        <v>0.3950623571452354</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2357784403735747</v>
       </c>
       <c r="E54" t="n">
-        <v>1.15465512828456</v>
+        <v>1.142804979456022</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.479771306276282</v>
+        <v>-2.476502741369589</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3356487641818536</v>
+        <v>0.3411990423402609</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2552506904643948</v>
       </c>
       <c r="E55" t="n">
-        <v>1.132999284735943</v>
+        <v>1.129007963827304</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.458263673452115</v>
+        <v>-2.454826160517963</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3060932280279962</v>
+        <v>0.3121509601894579</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2755616359157666</v>
       </c>
       <c r="E56" t="n">
-        <v>1.119999435431735</v>
+        <v>1.113084764719442</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.427237008625942</v>
+        <v>-2.420524221657653</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2623661849498977</v>
+        <v>0.2647186490001149</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2972073995745932</v>
       </c>
       <c r="E57" t="n">
-        <v>1.011657395858947</v>
+        <v>1.011984313341684</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.393340667015668</v>
+        <v>-2.386496747101878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2272079174594326</v>
+        <v>0.2304563549837928</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.320174100712773</v>
       </c>
       <c r="E58" t="n">
-        <v>1.016798417243257</v>
+        <v>1.021752802900481</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.418274834201806</v>
+        <v>-2.413595522769794</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2175876386250855</v>
+        <v>0.2235794993534584</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3448213374953814</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9983227001032046</v>
+        <v>1.006031487536623</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.352159432842316</v>
+        <v>-2.343685194959578</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2129790779915772</v>
+        <v>0.2183750462187673</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3710747523448482</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9948272447047615</v>
+        <v>1.007756343210467</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.37209591000318</v>
+        <v>-2.363360016150117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1941843723375858</v>
+        <v>0.19931136554633</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3997622300277792</v>
       </c>
       <c r="E61" t="n">
-        <v>1.10095039285554</v>
+        <v>1.120794771994215</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.394623330198869</v>
+        <v>-2.388783949639683</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2101435567653755</v>
+        <v>0.2171064112111313</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4301595556084774</v>
       </c>
       <c r="E62" t="n">
-        <v>1.124817808778045</v>
+        <v>1.149312223156247</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.382978724638396</v>
+        <v>-2.376406219425758</v>
       </c>
       <c r="G62" t="n">
-        <v>0.175104833727553</v>
+        <v>0.1847983030431099</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4615815181526217</v>
       </c>
       <c r="E63" t="n">
-        <v>1.186902854305583</v>
+        <v>1.218119814382902</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.394943538554162</v>
+        <v>-2.3873591749388</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1438592073784268</v>
+        <v>0.1526219377412661</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4920607474239941</v>
       </c>
       <c r="E64" t="n">
-        <v>1.274470385707655</v>
+        <v>1.31274961730104</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.458035563119012</v>
+        <v>-2.452723154024536</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1696417742259207</v>
+        <v>0.1777488398612559</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5207475165144857</v>
       </c>
       <c r="E65" t="n">
-        <v>1.316019402049087</v>
+        <v>1.360594844788542</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.593503824790169</v>
+        <v>-2.585905432999242</v>
       </c>
       <c r="G65" t="n">
-        <v>0.135378260368245</v>
+        <v>0.1450802685732764</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.546327222399503</v>
       </c>
       <c r="E66" t="n">
-        <v>1.359252409379019</v>
+        <v>1.409041454063316</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.67453910574427</v>
+        <v>-2.669995806623173</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1394683884265175</v>
+        <v>0.1503304657587237</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5686636801897426</v>
       </c>
       <c r="E67" t="n">
-        <v>1.405685060579172</v>
+        <v>1.460768216737643</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.722491069350202</v>
+        <v>-2.7193066734969</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09885438048254108</v>
+        <v>0.1095517792320253</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5874937364827019</v>
       </c>
       <c r="E68" t="n">
-        <v>1.443547106429661</v>
+        <v>1.504831326108629</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.817406925065735</v>
+        <v>-2.817062929804049</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06083497509745089</v>
+        <v>0.07074679601528358</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6031965195042998</v>
       </c>
       <c r="E69" t="n">
-        <v>1.434459898266792</v>
+        <v>1.501953720355732</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.862812469846244</v>
+        <v>-2.867687565815491</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09213793399019148</v>
+        <v>0.1042479090270242</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6160548472576917</v>
       </c>
       <c r="E70" t="n">
-        <v>1.448982109580163</v>
+        <v>1.520434926781875</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.904431627065501</v>
+        <v>-2.906400451010044</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09067717396937987</v>
+        <v>0.1040435856003136</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6253387845082996</v>
       </c>
       <c r="E71" t="n">
-        <v>1.43916970573264</v>
+        <v>1.513450725112433</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.973334975838406</v>
+        <v>-2.97888403415546</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08641748796297144</v>
+        <v>0.1008317433165583</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6308814781719007</v>
       </c>
       <c r="E72" t="n">
-        <v>1.430607029351774</v>
+        <v>1.503863991915307</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.047323233293359</v>
+        <v>-3.052695109653818</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04172250077087375</v>
+        <v>0.05640939066696699</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6316232520947875</v>
       </c>
       <c r="E73" t="n">
-        <v>1.47138815556118</v>
+        <v>1.54418035856903</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.107748989619805</v>
+        <v>-3.116153391585054</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.01701469016199448</v>
+        <v>-0.003961167838232539</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6274994633851954</v>
       </c>
       <c r="E74" t="n">
-        <v>1.453185682884311</v>
+        <v>1.522809347976455</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.154729959508354</v>
+        <v>-3.163638460912936</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.04038197112956607</v>
+        <v>-0.0266337491549881</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6175608100676956</v>
       </c>
       <c r="E75" t="n">
-        <v>1.433051591424181</v>
+        <v>1.498500959404661</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.16327952259467</v>
+        <v>-3.174394412047388</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.027135103951275</v>
+        <v>-0.01224511046982466</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6013726947478174</v>
       </c>
       <c r="E76" t="n">
-        <v>1.445306117661403</v>
+        <v>1.506476282173819</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.229248238031401</v>
+        <v>-3.242570430413271</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0400751810291618</v>
+        <v>-0.02366038585584131</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5776106323318083</v>
       </c>
       <c r="E77" t="n">
-        <v>1.335510027195247</v>
+        <v>1.386947077548118</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.247963349037077</v>
+        <v>-3.263119877854267</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.05185396913852029</v>
+        <v>-0.03267074401344038</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5458738789246605</v>
       </c>
       <c r="E78" t="n">
-        <v>1.373675203622081</v>
+        <v>1.425322066687752</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.238263170594076</v>
+        <v>-3.25742504849547</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.022581436178674</v>
+        <v>-0.002602264570437865</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5063494585749744</v>
       </c>
       <c r="E79" t="n">
-        <v>1.393151800592676</v>
+        <v>1.447154787232626</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.195139948985958</v>
+        <v>-3.213453122265657</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01418153261231519</v>
+        <v>0.036071585700803</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4599451582210385</v>
       </c>
       <c r="E80" t="n">
-        <v>1.431562775052239</v>
+        <v>1.480943172883115</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.149972578229719</v>
+        <v>-3.164598171097799</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00478265498362762</v>
+        <v>0.0260036250897228</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4084451524940189</v>
       </c>
       <c r="E81" t="n">
-        <v>1.564045475010714</v>
+        <v>1.609293050335946</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.036649011529592</v>
+        <v>-3.050497260495156</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0168018278458094</v>
+        <v>0.001554954762276898</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3531551200488721</v>
       </c>
       <c r="E82" t="n">
-        <v>1.637248764554693</v>
+        <v>1.68273908830927</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.91953570270449</v>
+        <v>-2.93102904793713</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0049461137249961</v>
+        <v>0.02235142007735543</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2960282167148029</v>
       </c>
       <c r="E83" t="n">
-        <v>1.812031293207677</v>
+        <v>1.859403832170699</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.783889344195722</v>
+        <v>-2.794172606805694</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04900068420650833</v>
+        <v>0.06850228792485073</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2376115658569854</v>
       </c>
       <c r="E84" t="n">
-        <v>2.01125822274337</v>
+        <v>2.055953209935467</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.699759325727802</v>
+        <v>-2.711897967036442</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01270735433661514</v>
+        <v>0.02953872533215455</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1800013202844448</v>
       </c>
       <c r="E85" t="n">
-        <v>2.162706406145327</v>
+        <v>2.201368058003033</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.487288578617202</v>
+        <v>-2.498151875790762</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05887286028035239</v>
+        <v>0.07614032455976666</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.124718746538822</v>
       </c>
       <c r="E86" t="n">
-        <v>2.31785558821379</v>
+        <v>2.35609273528048</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.301016364255638</v>
+        <v>-2.312038240805152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06135218783133325</v>
+        <v>0.0772589190809226</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07396939329109847</v>
       </c>
       <c r="E87" t="n">
-        <v>2.432269388123605</v>
+        <v>2.468391330283332</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.038706558965247</v>
+        <v>-2.048778179100388</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07660874363950916</v>
+        <v>0.093071112625616</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02827297106590757</v>
       </c>
       <c r="E88" t="n">
-        <v>2.525456728641234</v>
+        <v>2.561105372355804</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.737324625201699</v>
+        <v>-1.744867514211042</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08815149244696617</v>
+        <v>0.1032445895137736</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01144929367579693</v>
       </c>
       <c r="E89" t="n">
-        <v>2.558576641230007</v>
+        <v>2.59289321818656</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.539047342159703</v>
+        <v>-1.543103314660078</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03904555892062652</v>
+        <v>0.05200088401543202</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04422157098135031</v>
       </c>
       <c r="E90" t="n">
-        <v>2.620542142304903</v>
+        <v>2.651563927765662</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.317438763470064</v>
+        <v>-1.318258496859613</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03548728169247835</v>
+        <v>0.05040716128708934</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06823843841875719</v>
       </c>
       <c r="E91" t="n">
-        <v>2.625232432309095</v>
+        <v>2.655056333560722</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9561083363096258</v>
+        <v>-0.9569658847811335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04263067265855161</v>
+        <v>0.05350494840429273</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08245464992600947</v>
       </c>
       <c r="E92" t="n">
-        <v>2.55647729426064</v>
+        <v>2.587352698758981</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7517245274520283</v>
+        <v>-0.7485450109641407</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02961923486148529</v>
+        <v>0.04344430684133352</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08684280194789566</v>
       </c>
       <c r="E93" t="n">
-        <v>2.483872336900551</v>
+        <v>2.512883823810749</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4374793666158637</v>
+        <v>-0.4287727489552852</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04817675737840625</v>
+        <v>-0.03950002583098838</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08237304624320728</v>
       </c>
       <c r="E94" t="n">
-        <v>2.433290395336481</v>
+        <v>2.461493127429311</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1761948379830864</v>
+        <v>-0.1641592732688169</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09093158689776837</v>
+        <v>-0.08530567857544427</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07118624527935806</v>
       </c>
       <c r="E95" t="n">
-        <v>2.288794087808099</v>
+        <v>2.312964024386271</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03464620107924278</v>
+        <v>0.0477046027684187</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1364444777173852</v>
+        <v>-0.1332283659888927</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0557450865935606</v>
       </c>
       <c r="E96" t="n">
-        <v>2.132832491398207</v>
+        <v>2.153816202361047</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2012356652814701</v>
+        <v>0.2169246548494604</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1893715642835514</v>
+        <v>-0.1870868014284532</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03884470169584218</v>
       </c>
       <c r="E97" t="n">
-        <v>1.963702707577324</v>
+        <v>1.98171244532034</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3308529579005836</v>
+        <v>0.3455166708109604</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2066878222171055</v>
+        <v>-0.2067878492080922</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02238247485474255</v>
       </c>
       <c r="E98" t="n">
-        <v>1.758267395473013</v>
+        <v>1.770943376897868</v>
       </c>
       <c r="F98" t="n">
-        <v>0.426759934715832</v>
+        <v>0.4413888821476342</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3366802160524191</v>
+        <v>-0.3414546751100029</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.00861009560526314</v>
       </c>
       <c r="E99" t="n">
-        <v>1.598979901612813</v>
+        <v>1.60740351607938</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4779078826679241</v>
+        <v>0.4941146948904735</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3247495576945504</v>
+        <v>-0.3276344824955687</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.002313843624007933</v>
       </c>
       <c r="E100" t="n">
-        <v>1.424369370590672</v>
+        <v>1.428230168474487</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5037136265011345</v>
+        <v>0.5166555333410515</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.416714617175976</v>
+        <v>-0.4244429220710507</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.009391822248984029</v>
       </c>
       <c r="E101" t="n">
-        <v>1.294628873994855</v>
+        <v>1.290753438014798</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5114956044157629</v>
+        <v>0.5189012612728379</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4191994340130476</v>
+        <v>-0.4271265730487421</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01736951563704169</v>
       </c>
       <c r="E102" t="n">
-        <v>1.089535117469523</v>
+        <v>1.079409214394152</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4676240101372751</v>
+        <v>0.4743032514683431</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4555476567438481</v>
+        <v>-0.4629984477310024</v>
       </c>
     </row>
   </sheetData>
